--- a/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6892877A-DB3B-4A1F-9672-6632FDE00B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567AC4D6-6211-4AF0-B118-2A61998D5942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -56,7 +56,7 @@
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,6 +150,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Var(--jp-code-font-family)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,12 +165,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Var(--jp-code-font-family)"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -301,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,9 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -659,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -698,20 +691,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.5</v>
+      <c r="B2" s="5">
+        <v>2.3199999999999998</v>
       </c>
       <c r="C2" s="3">
-        <v>23.307110124472398</v>
+        <v>23.638054591081701</v>
       </c>
       <c r="D2" s="4">
-        <v>0.70522918126269396</v>
+        <v>0.69403472902890995</v>
       </c>
       <c r="E2" s="1">
-        <v>10665.0810546875</v>
+        <v>10725.5760717708</v>
       </c>
       <c r="F2" s="1">
-        <v>3420.07348632812</v>
+        <v>3416.7793989922702</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -720,240 +713,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.8</v>
+      <c r="B3" s="5">
+        <v>3.82</v>
       </c>
       <c r="C3" s="3">
-        <v>25.2933113913551</v>
+        <v>25.3061813154813</v>
       </c>
       <c r="D3" s="4">
-        <v>0.75323977754265603</v>
+        <v>0.75113670855427905</v>
       </c>
       <c r="E3" s="1">
-        <v>9340.18115234375</v>
+        <v>9354.6155495907296</v>
       </c>
       <c r="F3" s="1">
-        <v>3357.0247192382799</v>
+        <v>3360.2767035772199</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>4.9000000000000004</v>
+      <c r="B4" s="5">
+        <v>4.92</v>
       </c>
       <c r="C4" s="3">
-        <v>26.559101202809401</v>
+        <v>26.567154517513</v>
       </c>
       <c r="D4" s="4">
-        <v>0.77861844270878</v>
+        <v>0.77960335453400398</v>
       </c>
       <c r="E4" s="1">
-        <v>9425.3525390625</v>
+        <v>9417.8519534436691</v>
       </c>
       <c r="F4" s="1">
-        <v>3711.8917236328102</v>
+        <v>3719.5230448494799</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>6.2</v>
+      <c r="B5" s="5">
+        <v>6.16</v>
       </c>
       <c r="C5" s="3">
-        <v>27.693542256534901</v>
+        <v>27.660217728617699</v>
       </c>
       <c r="D5" s="4">
-        <v>0.80080583590471399</v>
+        <v>0.80089555401457402</v>
       </c>
       <c r="E5" s="1">
-        <v>8974.87548828125</v>
+        <v>8993.0376339813101</v>
       </c>
       <c r="F5" s="1">
-        <v>3792.5906982421802</v>
+        <v>3800.2553804649801</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>7.5</v>
+      <c r="B6" s="5">
+        <v>7.53</v>
       </c>
       <c r="C6" s="3">
-        <v>28.582860969322599</v>
+        <v>28.637482749775899</v>
       </c>
       <c r="D6" s="4">
-        <v>0.82148601723646697</v>
+        <v>0.82350225449639003</v>
       </c>
       <c r="E6" s="1">
-        <v>8736.2979736328107</v>
+        <v>8742.3863978903792</v>
       </c>
       <c r="F6" s="1">
-        <v>3899.5724487304601</v>
+        <v>3905.0229284337101</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>9.1</v>
+      <c r="B7" s="5">
+        <v>9.15</v>
       </c>
       <c r="C7" s="3">
-        <v>29.562609857348601</v>
+        <v>29.571942682713299</v>
       </c>
       <c r="D7" s="4">
-        <v>0.84399676054337402</v>
+        <v>0.84496053156913598</v>
       </c>
       <c r="E7" s="1">
-        <v>8298.6237792968695</v>
+        <v>8250.9436498278992</v>
       </c>
       <c r="F7" s="1">
-        <v>3813.4755859375</v>
+        <v>3806.1385736253501</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>10.7</v>
+      <c r="B8" s="5">
+        <v>10.8</v>
       </c>
       <c r="C8" s="3">
-        <v>30.195235433918999</v>
+        <v>30.2612286047308</v>
       </c>
       <c r="D8" s="4">
-        <v>0.85640500372844697</v>
+        <v>0.85779148348998002</v>
       </c>
       <c r="E8" s="1">
-        <v>7953.3366699218705</v>
+        <v>7935.27099473821</v>
       </c>
       <c r="F8" s="1">
-        <v>3756.6663208007799</v>
+        <v>3762.6935690361001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>12.399999999999901</v>
+      <c r="B9" s="5">
+        <v>12.57</v>
       </c>
       <c r="C9" s="3">
-        <v>30.839776833953302</v>
+        <v>30.878190927794101</v>
       </c>
       <c r="D9" s="4">
-        <v>0.86937664807288195</v>
+        <v>0.86971732469518104</v>
       </c>
       <c r="E9" s="1">
-        <v>7822.0545654296802</v>
+        <v>7800.7894283963897</v>
       </c>
       <c r="F9" s="1">
-        <v>3757.8922119140602</v>
+        <v>3762.1838153139702</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>14.3</v>
+      <c r="B10" s="5">
+        <v>14.3799999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>31.399301517479302</v>
+        <v>31.433718242427201</v>
       </c>
       <c r="D10" s="4">
-        <v>0.87956392963338503</v>
+        <v>0.87977022543887196</v>
       </c>
       <c r="E10" s="1">
-        <v>7712.2667236328098</v>
+        <v>7658.1670296722696</v>
       </c>
       <c r="F10" s="1">
-        <v>3757.2066040038999</v>
+        <v>3736.3591930614002</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>16</v>
+      <c r="B11" s="5">
+        <v>16.259999999999899</v>
       </c>
       <c r="C11" s="3">
-        <v>31.844329842628301</v>
+        <v>31.936687586456699</v>
       </c>
       <c r="D11" s="4">
-        <v>0.88667705052698398</v>
+        <v>0.88781519516305296</v>
       </c>
       <c r="E11" s="1">
-        <v>7597.3601074218705</v>
+        <v>7573.75876787989</v>
       </c>
       <c r="F11" s="1">
-        <v>3690.89599609375</v>
+        <v>3682.0692189486099</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>18.2</v>
+      <c r="B12" s="5">
+        <v>18.350000000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>32.378098825728301</v>
+        <v>32.399034995328897</v>
       </c>
       <c r="D12" s="4">
-        <v>0.89506919197915402</v>
+        <v>0.89492660403042001</v>
       </c>
       <c r="E12" s="1">
-        <v>7465.0020751953098</v>
+        <v>7435.2392931280701</v>
       </c>
       <c r="F12" s="1">
-        <v>3628.7230224609302</v>
+        <v>3624.6301429394398</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>20.3</v>
+      <c r="B13" s="5">
+        <v>20.52</v>
       </c>
       <c r="C13" s="3">
-        <v>32.802030535265203</v>
+        <v>32.841011269570103</v>
       </c>
       <c r="D13" s="4">
-        <v>0.90213625151010401</v>
+        <v>0.90269755169781896</v>
       </c>
       <c r="E13" s="1">
-        <v>7260.9228515625</v>
+        <v>7246.6019941716704</v>
       </c>
       <c r="F13" s="1">
-        <v>3566.0217895507799</v>
+        <v>3568.57219054898</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>22.5</v>
+      <c r="B14" s="5">
+        <v>22.78</v>
       </c>
       <c r="C14" s="3">
-        <v>33.174072748495703</v>
+        <v>33.242288831847603</v>
       </c>
       <c r="D14" s="4">
-        <v>0.90751521245201205</v>
+        <v>0.90835109033630801</v>
       </c>
       <c r="E14" s="1">
-        <v>7214.8835449218705</v>
+        <v>7191.8774055563999</v>
       </c>
       <c r="F14" s="1">
-        <v>3593.6625366210901</v>
+        <v>3601.9122226925501</v>
       </c>
     </row>
   </sheetData>
@@ -970,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1008,20 +1001,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.8</v>
+      <c r="B2" s="5">
+        <v>0.1</v>
       </c>
       <c r="C2" s="3">
-        <v>21.741895184653</v>
+        <v>22.302818323600299</v>
       </c>
       <c r="D2" s="4">
-        <v>0.54118481292129905</v>
+        <v>0.59435675392908105</v>
       </c>
       <c r="E2" s="1">
-        <v>10302.964355468701</v>
+        <v>19237.159545898401</v>
       </c>
       <c r="F2" s="1">
-        <v>3146.0410766601499</v>
+        <v>6195.2083129882803</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1030,245 +1023,246 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.9</v>
+      <c r="B3" s="5">
+        <v>3.4</v>
       </c>
       <c r="C3" s="3">
-        <v>22.716921938250302</v>
+        <v>22.818380121974698</v>
       </c>
       <c r="D3" s="4">
-        <v>0.59845411224883405</v>
+        <v>0.62470692758554902</v>
       </c>
       <c r="E3" s="1">
-        <v>12582.2762451171</v>
+        <v>19920.8260498046</v>
       </c>
       <c r="F3" s="1">
-        <v>4429.5694580078098</v>
+        <v>6390.91455078125</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>5</v>
+      <c r="B4" s="5">
+        <v>4.55</v>
       </c>
       <c r="C4" s="3">
-        <v>23.399881548091098</v>
+        <v>23.673852800766799</v>
       </c>
       <c r="D4" s="4">
-        <v>0.64132106114193099</v>
+        <v>0.66182021713834804</v>
       </c>
       <c r="E4" s="1">
-        <v>15925.5838623046</v>
+        <v>21010.733520507802</v>
       </c>
       <c r="F4" s="1">
-        <v>5995.3821411132803</v>
+        <v>7307.1939086913999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>6</v>
+      <c r="B5" s="5">
+        <v>5.6999999999999904</v>
       </c>
       <c r="C5" s="3">
-        <v>23.889720270967398</v>
+        <v>24.295800331086401</v>
       </c>
       <c r="D5" s="4">
-        <v>0.67713490360323503</v>
+        <v>0.69884350216211799</v>
       </c>
       <c r="E5" s="1">
-        <v>19216.673217773401</v>
+        <v>22832.100708007802</v>
       </c>
       <c r="F5" s="1">
-        <v>7232.2186279296802</v>
+        <v>8260.0803222656195</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>7</v>
+      <c r="B6" s="5">
+        <v>6.8</v>
       </c>
       <c r="C6" s="3">
-        <v>24.329716258814098</v>
+        <v>24.741046421105001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.70890145422783002</v>
+        <v>0.72518821235165798</v>
       </c>
       <c r="E6" s="1">
-        <v>22749.015991210901</v>
+        <v>24037.6375732421</v>
       </c>
       <c r="F6" s="1">
-        <v>8124.4457397460901</v>
+        <v>8626.8876953125</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>8</v>
+      <c r="B7" s="5">
+        <v>7.8</v>
       </c>
       <c r="C7" s="3">
-        <v>24.762226512596602</v>
+        <v>25.074389112285701</v>
       </c>
       <c r="D7" s="4">
-        <v>0.73348714244799296</v>
+        <v>0.74489415548428595</v>
       </c>
       <c r="E7" s="1">
-        <v>24575.220703125</v>
+        <v>25170.17578125</v>
       </c>
       <c r="F7" s="1">
-        <v>8651.8173217773401</v>
+        <v>8962.8934936523401</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>9</v>
+      <c r="B8" s="5">
+        <v>8.9</v>
       </c>
       <c r="C8" s="3">
-        <v>25.180121097342901</v>
+        <v>25.441530368278201</v>
       </c>
       <c r="D8" s="4">
-        <v>0.75456404465139704</v>
+        <v>0.76270216138656699</v>
       </c>
       <c r="E8" s="1">
-        <v>25428.56640625</v>
+        <v>26047.600097656199</v>
       </c>
       <c r="F8" s="1">
-        <v>8972.7882690429597</v>
+        <v>9350.1654052734302</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>10.1</v>
+      <c r="B9" s="5">
+        <v>10.050000000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>25.5881822856878</v>
+        <v>25.766679907658901</v>
       </c>
       <c r="D9" s="4">
-        <v>0.772091464587224</v>
+        <v>0.77855301651453102</v>
       </c>
       <c r="E9" s="1">
-        <v>25307.855102539001</v>
+        <v>25851.6424560546</v>
       </c>
       <c r="F9" s="1">
-        <v>9224.7327880859302</v>
+        <v>9236.7216186523401</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>11.2</v>
       </c>
       <c r="C10" s="3">
-        <v>25.956186772746399</v>
+        <v>26.069972913264198</v>
       </c>
       <c r="D10" s="4">
-        <v>0.78636303111078598</v>
+        <v>0.79139063138933496</v>
       </c>
       <c r="E10" s="1">
-        <v>25257.7197265625</v>
+        <v>25689.429443359299</v>
       </c>
       <c r="F10" s="1">
-        <v>9388.4676513671802</v>
+        <v>9315.5633544921802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>12.3</v>
       </c>
       <c r="C11" s="3">
-        <v>26.2998821716801</v>
+        <v>26.3879973640651</v>
       </c>
       <c r="D11" s="4">
-        <v>0.79943694733606596</v>
+        <v>0.80359671314766101</v>
       </c>
       <c r="E11" s="1">
-        <v>25482.755493164001</v>
+        <v>25634.7215576171</v>
       </c>
       <c r="F11" s="1">
-        <v>9340.2316284179597</v>
+        <v>9300.94677734375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>13.399999999999901</v>
+      <c r="B12" s="5">
+        <v>13.5</v>
       </c>
       <c r="C12" s="3">
-        <v>26.617268534686399</v>
+        <v>26.705623546550399</v>
       </c>
       <c r="D12" s="4">
-        <v>0.81103808943009803</v>
+        <v>0.81461676541488703</v>
       </c>
       <c r="E12" s="1">
-        <v>25895.051147460901</v>
+        <v>26216.347412109299</v>
       </c>
       <c r="F12" s="1">
-        <v>9695.4596557617097</v>
+        <v>9766.32373046875</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>14.7</v>
+      <c r="B13" s="5">
+        <v>14.75</v>
       </c>
       <c r="C13" s="3">
-        <v>26.9833596772581</v>
+        <v>27.041947804141</v>
       </c>
       <c r="D13" s="4">
-        <v>0.82212142028415602</v>
+        <v>0.82425465776028095</v>
       </c>
       <c r="E13" s="1">
-        <v>25959.550537109299</v>
+        <v>26007.323974609299</v>
       </c>
       <c r="F13" s="1">
-        <v>9870.0646362304597</v>
+        <v>9859.4887084960901</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>15.899999999999901</v>
+      <c r="B14" s="5">
+        <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>27.307304970138802</v>
+        <v>27.3488730125482</v>
       </c>
       <c r="D14" s="4">
-        <v>0.83170656634060303</v>
+        <v>0.83298619966790999</v>
       </c>
       <c r="E14" s="1">
-        <v>25411.482543945302</v>
+        <v>25425.626464843699</v>
       </c>
       <c r="F14" s="1">
-        <v>9620.6232910156195</v>
+        <v>9609.2239990234302</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;Cページ &amp;P</oddFooter>
@@ -1281,7 +1275,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1318,20 +1312,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.6</v>
+      <c r="B2" s="5">
+        <v>2.36</v>
       </c>
       <c r="C2" s="3">
-        <v>22.780845737748901</v>
+        <v>23.342550730801499</v>
       </c>
       <c r="D2" s="4">
-        <v>0.62067945002760105</v>
+        <v>0.63503177395347399</v>
       </c>
       <c r="E2" s="1">
-        <v>10338.704711914001</v>
+        <v>10179.7606201171</v>
       </c>
       <c r="F2" s="1">
-        <v>2865.1522827148401</v>
+        <v>2968.7595825195299</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1340,240 +1334,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.7</v>
+      <c r="B3" s="5">
+        <v>3.66</v>
       </c>
       <c r="C3" s="3">
-        <v>24.6257731490761</v>
+        <v>24.612152944909901</v>
       </c>
       <c r="D3" s="4">
-        <v>0.68109192759842796</v>
+        <v>0.67939515753303004</v>
       </c>
       <c r="E3" s="1">
-        <v>9802.3858642578107</v>
+        <v>9956.9871826171802</v>
       </c>
       <c r="F3" s="1">
-        <v>3046.7900390625</v>
+        <v>3109.9942016601499</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>4.8</v>
+      <c r="B4" s="5">
+        <v>4.75</v>
       </c>
       <c r="C4" s="3">
-        <v>25.770284709097499</v>
+        <v>25.7398733581859</v>
       </c>
       <c r="D4" s="4">
-        <v>0.721207430254728</v>
+        <v>0.71755371194059203</v>
       </c>
       <c r="E4" s="1">
-        <v>9998.60205078125</v>
+        <v>10092.5380859375</v>
       </c>
       <c r="F4" s="1">
-        <v>3384.06176757812</v>
+        <v>3428.4465942382799</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>6</v>
+      <c r="B5" s="5">
+        <v>5.95</v>
       </c>
       <c r="C5" s="3">
-        <v>26.7585533687264</v>
+        <v>26.7255025860002</v>
       </c>
       <c r="D5" s="4">
-        <v>0.757447471302512</v>
+        <v>0.75360130059642905</v>
       </c>
       <c r="E5" s="1">
-        <v>9764.0167236328107</v>
+        <v>9803.4957275390607</v>
       </c>
       <c r="F5" s="1">
-        <v>3456.2272338867101</v>
+        <v>3473.1456298828102</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>7.2</v>
+      <c r="B6" s="5">
+        <v>7.23</v>
       </c>
       <c r="C6" s="3">
-        <v>27.5229629413551</v>
+        <v>27.5303403521159</v>
       </c>
       <c r="D6" s="4">
-        <v>0.77806402017773102</v>
+        <v>0.77734166781256597</v>
       </c>
       <c r="E6" s="1">
-        <v>9829.07275390625</v>
+        <v>9838.2321777343695</v>
       </c>
       <c r="F6" s="1">
-        <v>3637.53930664062</v>
+        <v>3618.4608764648401</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>8.5</v>
+      <c r="B7" s="5">
+        <v>8.5399999999999991</v>
       </c>
       <c r="C7" s="3">
-        <v>28.217113589834099</v>
+        <v>28.2392408571943</v>
       </c>
       <c r="D7" s="4">
-        <v>0.798378419219544</v>
+        <v>0.79917237258963603</v>
       </c>
       <c r="E7" s="1">
-        <v>9644.6141357421802</v>
+        <v>9620.9362792968695</v>
       </c>
       <c r="F7" s="1">
-        <v>3550.9033203125</v>
+        <v>3541.8069458007799</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>9.9</v>
+      <c r="B8" s="5">
+        <v>9.8699999999999992</v>
       </c>
       <c r="C8" s="3">
-        <v>28.826123542028601</v>
+        <v>28.825995605112102</v>
       </c>
       <c r="D8" s="4">
-        <v>0.81618795741586103</v>
+        <v>0.81609728858753405</v>
       </c>
       <c r="E8" s="1">
-        <v>9255.1486816406195</v>
+        <v>9277.2058105468695</v>
       </c>
       <c r="F8" s="1">
-        <v>3488.6148681640602</v>
+        <v>3495.9967041015602</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>11.3</v>
+      <c r="B9" s="5">
+        <v>11.34</v>
       </c>
       <c r="C9" s="3">
-        <v>29.357272654699099</v>
+        <v>29.369295822285</v>
       </c>
       <c r="D9" s="4">
-        <v>0.83168643239621398</v>
+        <v>0.83180369922420305</v>
       </c>
       <c r="E9" s="1">
-        <v>9045.8908691406195</v>
+        <v>9048.2884521484302</v>
       </c>
       <c r="F9" s="1">
-        <v>3429.2421875</v>
+        <v>3431.27978515625</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>12.8</v>
+      <c r="B10" s="5">
+        <v>12.84</v>
       </c>
       <c r="C10" s="3">
-        <v>29.7983325989184</v>
+        <v>29.813754243332799</v>
       </c>
       <c r="D10" s="4">
-        <v>0.84383026901755298</v>
+        <v>0.84418452485691697</v>
       </c>
       <c r="E10" s="1">
-        <v>8980.2374267578107</v>
+        <v>8999.5548095703107</v>
       </c>
       <c r="F10" s="1">
-        <v>3484.5914306640602</v>
+        <v>3479.05883789062</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>14.3</v>
+      <c r="B11" s="5">
+        <v>14.39</v>
       </c>
       <c r="C11" s="3">
-        <v>30.242523087538199</v>
+        <v>30.268411344781398</v>
       </c>
       <c r="D11" s="4">
-        <v>0.85541387230914401</v>
+        <v>0.85561853757406203</v>
       </c>
       <c r="E11" s="1">
-        <v>8976.64892578125</v>
+        <v>8947.89794921875</v>
       </c>
       <c r="F11" s="1">
-        <v>3425.1581420898401</v>
+        <v>3415.06225585937</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>15.899999999999901</v>
+      <c r="B12" s="5">
+        <v>16.03</v>
       </c>
       <c r="C12" s="3">
-        <v>30.6406255728172</v>
+        <v>30.6690889542053</v>
       </c>
       <c r="D12" s="4">
-        <v>0.86348041003470399</v>
+        <v>0.86416785849808397</v>
       </c>
       <c r="E12" s="1">
-        <v>8869.8479003906195</v>
+        <v>8850.1904296875</v>
       </c>
       <c r="F12" s="1">
-        <v>3353.0880737304601</v>
+        <v>3378.9566040038999</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>17.600000000000001</v>
+      <c r="B13" s="5">
+        <v>17.73</v>
       </c>
       <c r="C13" s="3">
-        <v>31.029878050115801</v>
+        <v>31.048996159820501</v>
       </c>
       <c r="D13" s="4">
-        <v>0.87148844194096797</v>
+        <v>0.87182418057964195</v>
       </c>
       <c r="E13" s="1">
-        <v>8787.6083984375</v>
+        <v>8778.0943603515607</v>
       </c>
       <c r="F13" s="1">
-        <v>3389.6204833984302</v>
+        <v>3386.5923461913999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>19.3</v>
+      <c r="B14" s="5">
+        <v>19.559999999999999</v>
       </c>
       <c r="C14" s="3">
-        <v>31.377337311608201</v>
+        <v>31.4135983086768</v>
       </c>
       <c r="D14" s="4">
-        <v>0.878881650170658</v>
+        <v>0.87991799076392097</v>
       </c>
       <c r="E14" s="1">
-        <v>8707.48876953125</v>
+        <v>8696.3536376953107</v>
       </c>
       <c r="F14" s="1">
-        <v>3371.1664428710901</v>
+        <v>3372.0159301757799</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1585,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1628,20 +1622,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>3</v>
+      <c r="B2" s="5">
+        <v>2.95</v>
       </c>
       <c r="C2" s="3">
-        <v>23.8294934168905</v>
+        <v>24.078681875696599</v>
       </c>
       <c r="D2" s="4">
-        <v>0.540349035659762</v>
+        <v>0.54630556414420095</v>
       </c>
       <c r="E2" s="1">
-        <v>6519.3172607421802</v>
+        <v>6337.4241943359302</v>
       </c>
       <c r="F2" s="1">
-        <v>1742.78771972656</v>
+        <v>1695.86157226562</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1650,240 +1644,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>4.4000000000000004</v>
+      <c r="B3" s="5">
+        <v>4.3499999999999996</v>
       </c>
       <c r="C3" s="3">
-        <v>25.651256555807599</v>
+        <v>25.6169209125331</v>
       </c>
       <c r="D3" s="4">
-        <v>0.61513994997004695</v>
+        <v>0.61379056358546102</v>
       </c>
       <c r="E3" s="1">
-        <v>6301.0515136718705</v>
+        <v>6255.7673339843705</v>
       </c>
       <c r="F3" s="1">
-        <v>1961.2420043945301</v>
+        <v>1949.2717895507801</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>5.7</v>
+      <c r="B4" s="5">
+        <v>5.65</v>
       </c>
       <c r="C4" s="3">
-        <v>26.6880160985224</v>
+        <v>26.647610756997601</v>
       </c>
       <c r="D4" s="4">
-        <v>0.65679972300563905</v>
+        <v>0.65506207445420905</v>
       </c>
       <c r="E4" s="1">
-        <v>6013.9689941406205</v>
+        <v>6028.7653808593705</v>
       </c>
       <c r="F4" s="1">
-        <v>2013.62255859375</v>
+        <v>2004.75427246093</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>6.9</v>
+      <c r="B5" s="5">
+        <v>6.95</v>
       </c>
       <c r="C5" s="3">
-        <v>27.3785693881327</v>
+        <v>27.409712762890699</v>
       </c>
       <c r="D5" s="4">
-        <v>0.68638598244053095</v>
+        <v>0.68773599664062601</v>
       </c>
       <c r="E5" s="1">
-        <v>6099.8604736328098</v>
+        <v>6078.20703125</v>
       </c>
       <c r="F5" s="1">
-        <v>2083.5963134765602</v>
+        <v>2077.3023681640602</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>8.3000000000000007</v>
+      <c r="B6" s="5">
+        <v>8.35</v>
       </c>
       <c r="C6" s="3">
-        <v>28.019926906770898</v>
+        <v>28.026393259672599</v>
       </c>
       <c r="D6" s="4">
-        <v>0.71555063719105805</v>
+        <v>0.71555900458704302</v>
       </c>
       <c r="E6" s="1">
-        <v>5996.8309326171802</v>
+        <v>6006.7790527343705</v>
       </c>
       <c r="F6" s="1">
-        <v>2113.5029296875</v>
+        <v>2116.9437866210901</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>9.6</v>
+      <c r="B7" s="5">
+        <v>9.65</v>
       </c>
       <c r="C7" s="3">
-        <v>28.510445676806999</v>
+        <v>28.516173352545501</v>
       </c>
       <c r="D7" s="4">
-        <v>0.73586761249795896</v>
+        <v>0.73609273020823895</v>
       </c>
       <c r="E7" s="1">
-        <v>6001.2491455078098</v>
+        <v>6007.7443847656205</v>
       </c>
       <c r="F7" s="1">
-        <v>2193.14721679687</v>
+        <v>2184.5006713867101</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>10.899999999999901</v>
+      <c r="B8" s="5">
+        <v>10.95</v>
       </c>
       <c r="C8" s="3">
-        <v>28.941047166530101</v>
+        <v>28.945119733957799</v>
       </c>
       <c r="D8" s="4">
-        <v>0.752073541683978</v>
+        <v>0.75211676495383994</v>
       </c>
       <c r="E8" s="1">
-        <v>6059.6868896484302</v>
+        <v>6054.80029296875</v>
       </c>
       <c r="F8" s="1">
-        <v>2173.8411865234302</v>
+        <v>2181.8077392578102</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>12.3</v>
+      <c r="B9" s="5">
+        <v>12.35</v>
       </c>
       <c r="C9" s="3">
-        <v>29.312372378353899</v>
+        <v>29.325928470832899</v>
       </c>
       <c r="D9" s="4">
-        <v>0.76698244590590303</v>
+        <v>0.76755128681613205</v>
       </c>
       <c r="E9" s="1">
-        <v>6172.97802734375</v>
+        <v>6147.7166748046802</v>
       </c>
       <c r="F9" s="1">
-        <v>2300.2575073242101</v>
+        <v>2303.1309814453102</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>13.7</v>
+      <c r="B10" s="5">
+        <v>13.8</v>
       </c>
       <c r="C10" s="3">
-        <v>29.6826684609727</v>
+        <v>29.696998548018801</v>
       </c>
       <c r="D10" s="4">
-        <v>0.780814410229556</v>
+        <v>0.78140957312283299</v>
       </c>
       <c r="E10" s="1">
-        <v>6140.9935302734302</v>
+        <v>6137.7803955078098</v>
       </c>
       <c r="F10" s="1">
-        <v>2324.6283569335901</v>
+        <v>2328.4445190429601</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>15.1</v>
+      <c r="B11" s="5">
+        <v>15.2</v>
       </c>
       <c r="C11" s="3">
-        <v>29.9918357875978</v>
+        <v>30.011939708896001</v>
       </c>
       <c r="D11" s="4">
-        <v>0.79307524264447604</v>
+        <v>0.79393731037621695</v>
       </c>
       <c r="E11" s="1">
-        <v>6170.8570556640598</v>
+        <v>6177.7430419921802</v>
       </c>
       <c r="F11" s="1">
-        <v>2368.5936889648401</v>
+        <v>2366.46020507812</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>16.5</v>
+      <c r="B12" s="5">
+        <v>16.7</v>
       </c>
       <c r="C12" s="3">
-        <v>30.291358891401401</v>
+        <v>30.312833379034199</v>
       </c>
       <c r="D12" s="4">
-        <v>0.80443081844699005</v>
+        <v>0.80524225554644802</v>
       </c>
       <c r="E12" s="1">
-        <v>6134.630859375</v>
+        <v>6160.6408691406205</v>
       </c>
       <c r="F12" s="1">
-        <v>2386.2101440429601</v>
+        <v>2412.1583251953102</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>18.100000000000001</v>
+      <c r="B13" s="5">
+        <v>18.2</v>
       </c>
       <c r="C13" s="3">
-        <v>30.576735867384901</v>
+        <v>30.593127898356201</v>
       </c>
       <c r="D13" s="4">
-        <v>0.81382977569062798</v>
+        <v>0.81462649895101902</v>
       </c>
       <c r="E13" s="1">
-        <v>6102.3059082031205</v>
+        <v>6095.3151855468705</v>
       </c>
       <c r="F13" s="1">
-        <v>2384.6692504882799</v>
+        <v>2383.9155883788999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>19.599999999999898</v>
+      <c r="B14" s="5">
+        <v>19.8</v>
       </c>
       <c r="C14" s="3">
-        <v>30.825703315445299</v>
+        <v>30.867974933167702</v>
       </c>
       <c r="D14" s="4">
-        <v>0.82179484138832803</v>
+        <v>0.82306509469029598</v>
       </c>
       <c r="E14" s="1">
-        <v>6116.08349609375</v>
+        <v>6119.1402587890598</v>
       </c>
       <c r="F14" s="1">
-        <v>2375.2095336913999</v>
+        <v>2378.9716796875</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1895,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1938,20 +1932,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.8</v>
+      <c r="B2" s="5">
+        <v>2.75</v>
       </c>
       <c r="C2" s="3">
-        <v>24.079405036405198</v>
+        <v>24.669980878089799</v>
       </c>
       <c r="D2" s="4">
-        <v>0.66311584908849897</v>
+        <v>0.67028930740654802</v>
       </c>
       <c r="E2" s="1">
-        <v>7768.6960449218705</v>
+        <v>7619.0291748046802</v>
       </c>
       <c r="F2" s="1">
-        <v>1804.6613159179601</v>
+        <v>1827.97204589843</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
@@ -1960,240 +1954,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>4.3</v>
+      <c r="B3" s="5">
+        <v>4.25</v>
       </c>
       <c r="C3" s="3">
-        <v>26.564037592324802</v>
+        <v>26.507155746926799</v>
       </c>
       <c r="D3" s="4">
-        <v>0.72874656046503905</v>
+        <v>0.72786020731182099</v>
       </c>
       <c r="E3" s="1">
-        <v>7189.2526855468705</v>
+        <v>7179.9411621093705</v>
       </c>
       <c r="F3" s="1">
-        <v>2086.00732421875</v>
+        <v>2081.7734375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>5.8</v>
       </c>
       <c r="C4" s="3">
-        <v>28.1285138219449</v>
+        <v>28.127045515692298</v>
       </c>
       <c r="D4" s="4">
-        <v>0.76874915157829504</v>
+        <v>0.76868252328614395</v>
       </c>
       <c r="E4" s="1">
-        <v>6707.3656005859302</v>
+        <v>6689.1002197265598</v>
       </c>
       <c r="F4" s="1">
-        <v>2177.4269409179601</v>
+        <v>2178.81030273437</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>7.3</v>
+      <c r="B5" s="5">
+        <v>7.35</v>
       </c>
       <c r="C5" s="3">
-        <v>29.147995532825501</v>
+        <v>29.1557982649277</v>
       </c>
       <c r="D5" s="4">
-        <v>0.79573544924489004</v>
+        <v>0.79535058571036799</v>
       </c>
       <c r="E5" s="1">
-        <v>6318.5067138671802</v>
+        <v>6318.0455322265598</v>
       </c>
       <c r="F5" s="1">
-        <v>2142.8272705078102</v>
+        <v>2148.8449096679601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>9</v>
+      <c r="B6" s="5">
+        <v>9.0500000000000007</v>
       </c>
       <c r="C6" s="3">
-        <v>30.0886990161837</v>
+        <v>30.111733157081499</v>
       </c>
       <c r="D6" s="4">
-        <v>0.81863905112852997</v>
+        <v>0.81838022030117696</v>
       </c>
       <c r="E6" s="1">
-        <v>6113.8430175781205</v>
+        <v>6103.8908691406205</v>
       </c>
       <c r="F6" s="1">
-        <v>2178.3363037109302</v>
+        <v>2174.51025390625</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>10.899999999999901</v>
+      <c r="B7" s="5">
+        <v>10.9</v>
       </c>
       <c r="C7" s="3">
-        <v>30.8939621175988</v>
+        <v>30.882517235471799</v>
       </c>
       <c r="D7" s="4">
-        <v>0.83784197754682599</v>
+        <v>0.83760811969710303</v>
       </c>
       <c r="E7" s="1">
-        <v>5942.333984375</v>
+        <v>5948.92138671875</v>
       </c>
       <c r="F7" s="1">
-        <v>2128.0951538085901</v>
+        <v>2125.4248046875</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>12.899999999999901</v>
+      <c r="B8" s="5">
+        <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>31.5527185745845</v>
+        <v>31.585028104750599</v>
       </c>
       <c r="D8" s="4">
-        <v>0.85093046488907698</v>
+        <v>0.85130898826314605</v>
       </c>
       <c r="E8" s="1">
-        <v>5780.0378417968705</v>
+        <v>5752.7385253906205</v>
       </c>
       <c r="F8" s="1">
-        <v>2072.8145751953102</v>
+        <v>2062.2694702148401</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>15</v>
+      <c r="B9" s="5">
+        <v>15.15</v>
       </c>
       <c r="C9" s="3">
-        <v>32.103160143344603</v>
+        <v>32.130994461734304</v>
       </c>
       <c r="D9" s="4">
-        <v>0.86217295268991401</v>
+        <v>0.86294728519570696</v>
       </c>
       <c r="E9" s="1">
-        <v>5558.5589599609302</v>
+        <v>5528.89794921875</v>
       </c>
       <c r="F9" s="1">
-        <v>2025.10424804687</v>
+        <v>2016.27429199218</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>17.3</v>
+      <c r="B10" s="5">
+        <v>17.45</v>
       </c>
       <c r="C10" s="3">
-        <v>32.613253948435201</v>
+        <v>32.629629510128403</v>
       </c>
       <c r="D10" s="4">
-        <v>0.87100962652511305</v>
+        <v>0.87125506796942398</v>
       </c>
       <c r="E10" s="1">
-        <v>5517.3586425781205</v>
+        <v>5521.98681640625</v>
       </c>
       <c r="F10" s="1">
-        <v>2026.5442504882801</v>
+        <v>2023.81018066406</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>19.599999999999898</v>
+      <c r="B11" s="5">
+        <v>19.850000000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>33.0281869820476</v>
+        <v>33.074179874487399</v>
       </c>
       <c r="D11" s="4">
-        <v>0.87815585148299002</v>
+        <v>0.87868211984844002</v>
       </c>
       <c r="E11" s="1">
-        <v>5439.5472412109302</v>
+        <v>5400.89794921875</v>
       </c>
       <c r="F11" s="1">
-        <v>1984.49890136718</v>
+        <v>1979.7362670898401</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>22.3</v>
+      <c r="B12" s="5">
+        <v>22.45</v>
       </c>
       <c r="C12" s="3">
-        <v>33.453428091042099</v>
+        <v>33.478498051863703</v>
       </c>
       <c r="D12" s="4">
-        <v>0.88494654985205901</v>
+        <v>0.88539222983311505</v>
       </c>
       <c r="E12" s="1">
-        <v>5319.55078125</v>
+        <v>5316.56201171875</v>
       </c>
       <c r="F12" s="1">
-        <v>1967.85620117187</v>
+        <v>1964.9517211914001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>24.599999999999898</v>
+      <c r="B13" s="5">
+        <v>25.2</v>
       </c>
       <c r="C13" s="3">
-        <v>33.797023687525801</v>
+        <v>33.864260882438899</v>
       </c>
       <c r="D13" s="4">
-        <v>0.89068258012888901</v>
+        <v>0.89150181852716004</v>
       </c>
       <c r="E13" s="1">
-        <v>5212.9130859375</v>
+        <v>5208.1077880859302</v>
       </c>
       <c r="F13" s="1">
-        <v>1932.9210815429601</v>
+        <v>1923.5991821289001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>27.7</v>
+      <c r="B14" s="5">
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>34.162372802047003</v>
+        <v>34.188965872364498</v>
       </c>
       <c r="D14" s="4">
-        <v>0.89598856232344704</v>
+        <v>0.89664698820547095</v>
       </c>
       <c r="E14" s="1">
-        <v>5168.4849853515598</v>
+        <v>5178.8190917968705</v>
       </c>
       <c r="F14" s="1">
-        <v>1894.56079101562</v>
+        <v>1899.61108398437</v>
       </c>
     </row>
   </sheetData>
@@ -2210,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2248,20 +2242,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.5</v>
+      <c r="B2" s="5">
+        <v>2.15</v>
       </c>
       <c r="C2" s="3">
-        <v>19.543969071099699</v>
+        <v>19.952050792613701</v>
       </c>
       <c r="D2" s="4">
-        <v>0.36827606139341901</v>
+        <v>0.39057878607629098</v>
       </c>
       <c r="E2" s="1">
-        <v>15391.910766601501</v>
+        <v>18523.892333984299</v>
       </c>
       <c r="F2" s="1">
-        <v>3988.7748413085901</v>
+        <v>5392.0765991210901</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
@@ -2270,240 +2264,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.2</v>
+      <c r="B3" s="5">
+        <v>3.1</v>
       </c>
       <c r="C3" s="3">
-        <v>20.3158286749815</v>
+        <v>20.2726506313331</v>
       </c>
       <c r="D3" s="4">
-        <v>0.43056997069986802</v>
+        <v>0.43217223118049403</v>
       </c>
       <c r="E3" s="1">
-        <v>19465.7521972656</v>
+        <v>21095.5751953125</v>
       </c>
       <c r="F3" s="1">
-        <v>5681.4353027343705</v>
+        <v>6179.8323974609302</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>3.8</v>
+      <c r="B4" s="5">
+        <v>3.7</v>
       </c>
       <c r="C4" s="3">
-        <v>20.765727339455399</v>
+        <v>20.7034733858065</v>
       </c>
       <c r="D4" s="4">
-        <v>0.47520122883447402</v>
+        <v>0.472996058229253</v>
       </c>
       <c r="E4" s="1">
-        <v>22567.226928710901</v>
+        <v>23564.9963378906</v>
       </c>
       <c r="F4" s="1">
-        <v>7098.3952636718705</v>
+        <v>7258.1520385742097</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>4.4000000000000004</v>
+      <c r="B5" s="5">
+        <v>4.3</v>
       </c>
       <c r="C5" s="3">
-        <v>21.1866518872888</v>
+        <v>21.144742875923299</v>
       </c>
       <c r="D5" s="4">
-        <v>0.51242874921409898</v>
+        <v>0.51152209491067502</v>
       </c>
       <c r="E5" s="1">
-        <v>24365.220214843699</v>
+        <v>24828.7033691406</v>
       </c>
       <c r="F5" s="1">
-        <v>7971.7406005859302</v>
+        <v>7953.3575439453098</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>4.9000000000000004</v>
       </c>
       <c r="C6" s="3">
-        <v>21.510757749145199</v>
+        <v>21.5215962198534</v>
       </c>
       <c r="D6" s="4">
-        <v>0.54214826568902896</v>
+        <v>0.54398311853647197</v>
       </c>
       <c r="E6" s="1">
-        <v>25547.8094482421</v>
+        <v>26054.255004882802</v>
       </c>
       <c r="F6" s="1">
-        <v>8439.4325561523401</v>
+        <v>8555.9577026367097</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>5.5</v>
       </c>
       <c r="C7" s="3">
-        <v>21.816330075096499</v>
+        <v>21.827412351621501</v>
       </c>
       <c r="D7" s="4">
-        <v>0.56788461415737301</v>
+        <v>0.56959452509680597</v>
       </c>
       <c r="E7" s="1">
-        <v>26058.2314453125</v>
+        <v>26533.363891601501</v>
       </c>
       <c r="F7" s="1">
-        <v>8884.5548095703107</v>
+        <v>8958.1650390625</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>6.1</v>
       </c>
       <c r="C8" s="3">
-        <v>22.111717977881298</v>
+        <v>22.123150052664499</v>
       </c>
       <c r="D8" s="4">
-        <v>0.59066119515853499</v>
+        <v>0.59223574757577702</v>
       </c>
       <c r="E8" s="1">
-        <v>26614.437255859299</v>
+        <v>26908.3371582031</v>
       </c>
       <c r="F8" s="1">
-        <v>9302.8209838867097</v>
+        <v>9333.6112670898401</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>6.7</v>
       </c>
       <c r="C9" s="3">
-        <v>22.369914300351599</v>
+        <v>22.3769787064703</v>
       </c>
       <c r="D9" s="4">
-        <v>0.60931716181154605</v>
+        <v>0.61062616144632798</v>
       </c>
       <c r="E9" s="1">
-        <v>27303.612426757802</v>
+        <v>27677.732421875</v>
       </c>
       <c r="F9" s="1">
-        <v>9720.3845825195294</v>
+        <v>9771.3580932617097</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>7.3</v>
       </c>
       <c r="C10" s="3">
-        <v>22.6028992333733</v>
+        <v>22.606698499584901</v>
       </c>
       <c r="D10" s="4">
-        <v>0.62629782361208797</v>
+        <v>0.62693912959065901</v>
       </c>
       <c r="E10" s="1">
-        <v>27611.843383789001</v>
+        <v>27825.248046875</v>
       </c>
       <c r="F10" s="1">
-        <v>9932.43408203125</v>
+        <v>9916.9144287109302</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>7.9</v>
+      <c r="B11" s="5">
+        <v>7.95</v>
       </c>
       <c r="C11" s="3">
-        <v>22.817783474038499</v>
+        <v>22.836188592708599</v>
       </c>
       <c r="D11" s="4">
-        <v>0.64128401284874503</v>
+        <v>0.64299578051587303</v>
       </c>
       <c r="E11" s="1">
-        <v>28045.752075195302</v>
+        <v>28288.238647460901</v>
       </c>
       <c r="F11" s="1">
-        <v>10107.552429199201</v>
+        <v>10154.966369628901</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>8.6</v>
       </c>
       <c r="C12" s="3">
-        <v>23.042366139406798</v>
+        <v>23.048304757915901</v>
       </c>
       <c r="D12" s="4">
-        <v>0.65607023293843203</v>
+        <v>0.65644222718120204</v>
       </c>
       <c r="E12" s="1">
-        <v>28290.011230468699</v>
+        <v>28449.130371093699</v>
       </c>
       <c r="F12" s="1">
-        <v>10281.3428955078</v>
+        <v>10311.187805175699</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>9.1999999999999993</v>
+      <c r="B13" s="5">
+        <v>9.25</v>
       </c>
       <c r="C13" s="3">
-        <v>23.226869335706301</v>
+        <v>23.244049846790599</v>
       </c>
       <c r="D13" s="4">
-        <v>0.66882096947041003</v>
+        <v>0.67025933147508399</v>
       </c>
       <c r="E13" s="1">
-        <v>28441.9582519531</v>
+        <v>28577.5126953125</v>
       </c>
       <c r="F13" s="1">
-        <v>10359.4481811523</v>
+        <v>10339.4343261718</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>9.9</v>
       </c>
       <c r="C14" s="3">
-        <v>23.406199317385902</v>
+        <v>23.415570475500001</v>
       </c>
       <c r="D14" s="4">
-        <v>0.68058887242093202</v>
+        <v>0.68147136676198905</v>
       </c>
       <c r="E14" s="1">
-        <v>28586.390380859299</v>
+        <v>28725.927368164001</v>
       </c>
       <c r="F14" s="1">
-        <v>10428.5928344726</v>
+        <v>10415.1807861328</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2515,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2558,20 +2552,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>3.8</v>
+      <c r="B2" s="5">
+        <v>3.75</v>
       </c>
       <c r="C2" s="3">
-        <v>27.413816122273399</v>
+        <v>27.376298051702101</v>
       </c>
       <c r="D2" s="4">
-        <v>0.72189076601798496</v>
+        <v>0.71503158414305101</v>
       </c>
       <c r="E2" s="1">
-        <v>3688.61743164062</v>
+        <v>3612.4505615234302</v>
       </c>
       <c r="F2" s="1">
-        <v>1186.0469360351501</v>
+        <v>1175.1559448242101</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
@@ -2580,240 +2574,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>5.9</v>
       </c>
       <c r="C3" s="3">
-        <v>29.650390327360299</v>
+        <v>29.663627704741501</v>
       </c>
       <c r="D3" s="4">
-        <v>0.767685925372383</v>
+        <v>0.76788689629070495</v>
       </c>
       <c r="E3" s="1">
-        <v>3294.7535400390602</v>
+        <v>3281.5594482421802</v>
       </c>
       <c r="F3" s="1">
-        <v>1245.55419921875</v>
+        <v>1239.12878417968</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="C4" s="3">
-        <v>31.817006660462098</v>
+        <v>31.819198021581801</v>
       </c>
       <c r="D4" s="4">
-        <v>0.81289193182014896</v>
+        <v>0.81301754507101198</v>
       </c>
       <c r="E4" s="1">
-        <v>2806.763671875</v>
+        <v>2804.5467529296802</v>
       </c>
       <c r="F4" s="1">
-        <v>1169.15319824218</v>
+        <v>1174.6676635742101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
-        <v>12.1</v>
+      <c r="B5" s="5">
+        <v>12.15</v>
       </c>
       <c r="C5" s="3">
-        <v>33.077665552723801</v>
+        <v>33.095997111650298</v>
       </c>
       <c r="D5" s="4">
-        <v>0.83422595062695803</v>
+        <v>0.835110637953136</v>
       </c>
       <c r="E5" s="1">
-        <v>2575.642578125</v>
+        <v>2583.7655029296802</v>
       </c>
       <c r="F5" s="1">
-        <v>1137.0360717773401</v>
+        <v>1136.6769409179601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <v>15.399999999999901</v>
+      <c r="B6" s="5">
+        <v>15.55</v>
       </c>
       <c r="C6" s="3">
-        <v>34.058339604091003</v>
+        <v>34.079110374287403</v>
       </c>
       <c r="D6" s="4">
-        <v>0.85037877149252505</v>
+        <v>0.85153141722039105</v>
       </c>
       <c r="E6" s="1">
-        <v>2539.19287109375</v>
+        <v>2531.9722900390602</v>
       </c>
       <c r="F6" s="1">
-        <v>1125.01062011718</v>
+        <v>1129.8887329101501</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
-        <v>18.8</v>
+      <c r="B7" s="5">
+        <v>18.95</v>
       </c>
       <c r="C7" s="3">
-        <v>34.763092329043602</v>
+        <v>34.767650818608601</v>
       </c>
       <c r="D7" s="4">
-        <v>0.861887304108926</v>
+        <v>0.86199458988895605</v>
       </c>
       <c r="E7" s="1">
-        <v>2491.4566650390602</v>
+        <v>2502.29663085937</v>
       </c>
       <c r="F7" s="1">
-        <v>1159.7239379882801</v>
+        <v>1164.07189941406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
-        <v>22.3</v>
+      <c r="B8" s="5">
+        <v>22.5</v>
       </c>
       <c r="C8" s="3">
-        <v>35.404168338727203</v>
+        <v>35.434043066745097</v>
       </c>
       <c r="D8" s="4">
-        <v>0.87399479707102601</v>
+        <v>0.87497169144255704</v>
       </c>
       <c r="E8" s="1">
-        <v>2450.3436279296802</v>
+        <v>2433.18481445312</v>
       </c>
       <c r="F8" s="1">
-        <v>1134.55627441406</v>
+        <v>1131.6753540039001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
-        <v>25.4</v>
+      <c r="B9" s="5">
+        <v>22.5</v>
       </c>
       <c r="C9" s="3">
-        <v>35.9382395358857</v>
+        <v>35.434043066745097</v>
       </c>
       <c r="D9" s="4">
-        <v>0.88265335199358397</v>
+        <v>0.87497169144255704</v>
       </c>
       <c r="E9" s="1">
-        <v>2385.5068359375</v>
+        <v>2433.18481445312</v>
       </c>
       <c r="F9" s="1">
-        <v>1111.9375</v>
+        <v>1131.6753540039001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>29</v>
+      <c r="B10" s="5">
+        <v>29.25</v>
       </c>
       <c r="C10" s="3">
-        <v>36.401594237074001</v>
+        <v>36.439776656435399</v>
       </c>
       <c r="D10" s="4">
-        <v>0.89013639021162105</v>
+        <v>0.88993735559702902</v>
       </c>
       <c r="E10" s="1">
-        <v>2407.02001953125</v>
+        <v>2408.74829101562</v>
       </c>
       <c r="F10" s="1">
-        <v>1125.2323608398401</v>
+        <v>1123.7754516601501</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>32.4</v>
+      <c r="B11" s="5">
+        <v>32.950000000000003</v>
       </c>
       <c r="C11" s="3">
-        <v>36.805483831793403</v>
+        <v>36.866451387275703</v>
       </c>
       <c r="D11" s="4">
-        <v>0.89574716249080399</v>
+        <v>0.89625135189660599</v>
       </c>
       <c r="E11" s="1">
-        <v>2382.30126953125</v>
+        <v>2372.3817138671802</v>
       </c>
       <c r="F11" s="1">
-        <v>1117.29797363281</v>
+        <v>1114.83154296875</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>35.799999999999997</v>
+      <c r="B12" s="5">
+        <v>36.5</v>
       </c>
       <c r="C12" s="3">
-        <v>37.1462349314249</v>
+        <v>37.1880745793204</v>
       </c>
       <c r="D12" s="4">
-        <v>0.90175882445787603</v>
+        <v>0.90234546408025496</v>
       </c>
       <c r="E12" s="1">
-        <v>2353.52221679687</v>
+        <v>2354.2515869140602</v>
       </c>
       <c r="F12" s="1">
-        <v>1110.4189453125</v>
+        <v>1110.1865234375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>40.1</v>
+      <c r="B13" s="5">
+        <v>40.049999999999997</v>
       </c>
       <c r="C13" s="3">
-        <v>37.481617957284001</v>
+        <v>37.459743676945102</v>
       </c>
       <c r="D13" s="4">
-        <v>0.90773934274333401</v>
+        <v>0.90739623821395199</v>
       </c>
       <c r="E13" s="1">
-        <v>2346.3790283203102</v>
+        <v>2347.2918701171802</v>
       </c>
       <c r="F13" s="1">
-        <v>1125.0664672851501</v>
+        <v>1120.4879760742101</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>43.5</v>
+      <c r="B14" s="5">
+        <v>43.7</v>
       </c>
       <c r="C14" s="3">
-        <v>37.7157849771313</v>
+        <v>37.706163589352997</v>
       </c>
       <c r="D14" s="4">
-        <v>0.91134728045499902</v>
+        <v>0.91130448210227499</v>
       </c>
       <c r="E14" s="1">
-        <v>2347.4154052734302</v>
+        <v>2341.2408447265602</v>
       </c>
       <c r="F14" s="1">
-        <v>1135.0248413085901</v>
+        <v>1122.8056640625</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2825,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2868,20 +2862,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.2999999999999998</v>
+      <c r="B2" s="5">
+        <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>21.881373191447601</v>
+        <v>22.504016789728901</v>
       </c>
       <c r="D2" s="4">
-        <v>0.57777175080488596</v>
+        <v>0.58042831549936602</v>
       </c>
       <c r="E2" s="1">
-        <v>13844.170288085899</v>
+        <v>13784.809082031201</v>
       </c>
       <c r="F2" s="1">
-        <v>3933.2210693359302</v>
+        <v>4091.4163208007799</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
@@ -2890,240 +2884,240 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.1</v>
+      <c r="B3" s="5">
+        <v>3.15</v>
       </c>
       <c r="C3" s="3">
-        <v>22.989781145528099</v>
+        <v>23.165392037264098</v>
       </c>
       <c r="D3" s="4">
-        <v>0.60505476904791</v>
+        <v>0.61245809642910398</v>
       </c>
       <c r="E3" s="1">
-        <v>14298.2878417968</v>
+        <v>14127.2510986328</v>
       </c>
       <c r="F3" s="1">
-        <v>4686.86376953125</v>
+        <v>4697.78173828125</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>4.0999999999999996</v>
+      <c r="B4" s="5">
+        <v>4.05</v>
       </c>
       <c r="C4" s="3">
-        <v>24.379850988563899</v>
+        <v>24.336514692033401</v>
       </c>
       <c r="D4" s="4">
-        <v>0.65689277595913198</v>
+        <v>0.65252163794796303</v>
       </c>
       <c r="E4" s="1">
-        <v>13527.7775878906</v>
+        <v>13488.890136718701</v>
       </c>
       <c r="F4" s="1">
-        <v>5039.9799194335901</v>
+        <v>4989.6199951171802</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>25.315978000545002</v>
+        <v>25.316611188427199</v>
       </c>
       <c r="D5" s="4">
-        <v>0.69013785038147002</v>
+        <v>0.69014002176542899</v>
       </c>
       <c r="E5" s="1">
-        <v>13017.296386718701</v>
+        <v>13023.5363769531</v>
       </c>
       <c r="F5" s="1">
-        <v>5057.4850463867097</v>
+        <v>5058.2199096679597</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>26.038504335212799</v>
+        <v>26.042783950271001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.71280396475372898</v>
+        <v>0.71331990396841105</v>
       </c>
       <c r="E6" s="1">
-        <v>12607.219360351501</v>
+        <v>12621.3171386718</v>
       </c>
       <c r="F6" s="1">
-        <v>5107.7659301757803</v>
+        <v>5118.1900634765598</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>26.6179837966408</v>
+        <v>26.6114790984916</v>
       </c>
       <c r="D7" s="4">
-        <v>0.731503256852989</v>
+        <v>0.73139657038344996</v>
       </c>
       <c r="E7" s="1">
-        <v>12403.8182373046</v>
+        <v>12374.611328125</v>
       </c>
       <c r="F7" s="1">
-        <v>5050.7815551757803</v>
+        <v>5051.36328125</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>8.1</v>
       </c>
       <c r="C8" s="3">
-        <v>27.199571984035899</v>
+        <v>27.2036643671828</v>
       </c>
       <c r="D8" s="4">
-        <v>0.74842622970679296</v>
+        <v>0.748349726216474</v>
       </c>
       <c r="E8" s="1">
-        <v>12038.482788085899</v>
+        <v>12040.184204101501</v>
       </c>
       <c r="F8" s="1">
-        <v>5104.1084594726499</v>
+        <v>5098.9208984375</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>9.1999999999999993</v>
       </c>
       <c r="C9" s="3">
-        <v>27.652008246544799</v>
+        <v>27.6512035274671</v>
       </c>
       <c r="D9" s="4">
-        <v>0.76246273317896995</v>
+        <v>0.76207410384280605</v>
       </c>
       <c r="E9" s="1">
-        <v>11855.9315185546</v>
+        <v>11865.7966308593</v>
       </c>
       <c r="F9" s="1">
-        <v>5209.2224731445303</v>
+        <v>5210.0859375</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="7">
-        <v>10.399999999999901</v>
+      <c r="B10" s="5">
+        <v>10.4</v>
       </c>
       <c r="C10" s="3">
-        <v>28.081796591883801</v>
+        <v>28.079251547329299</v>
       </c>
       <c r="D10" s="4">
-        <v>0.77570258198697195</v>
+        <v>0.77529625456390605</v>
       </c>
       <c r="E10" s="1">
-        <v>11660.0040283203</v>
+        <v>11652.102050781201</v>
       </c>
       <c r="F10" s="1">
-        <v>5078.0914916992097</v>
+        <v>5081.0115966796802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="7">
-        <v>11.5</v>
+      <c r="B11" s="5">
+        <v>11.6</v>
       </c>
       <c r="C11" s="3">
-        <v>28.424587186864301</v>
+        <v>28.439849359244999</v>
       </c>
       <c r="D11" s="4">
-        <v>0.78553422512839999</v>
+        <v>0.78554589211706904</v>
       </c>
       <c r="E11" s="1">
-        <v>11482.199584960899</v>
+        <v>11466.3273925781</v>
       </c>
       <c r="F11" s="1">
-        <v>5075.2642211913999</v>
+        <v>5071.615234375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="7">
-        <v>12.8</v>
+      <c r="B12" s="5">
+        <v>12.9</v>
       </c>
       <c r="C12" s="3">
-        <v>28.774208243186699</v>
+        <v>28.793603127813999</v>
       </c>
       <c r="D12" s="4">
-        <v>0.79528301939971102</v>
+        <v>0.79552926297043103</v>
       </c>
       <c r="E12" s="1">
-        <v>11308.9763183593</v>
+        <v>11301.4191894531</v>
       </c>
       <c r="F12" s="1">
-        <v>5078.7818603515598</v>
+        <v>5093.0354614257803</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
-        <v>14.1</v>
+      <c r="B13" s="5">
+        <v>14.25</v>
       </c>
       <c r="C13" s="3">
-        <v>29.090111459824101</v>
+        <v>29.1230743609553</v>
       </c>
       <c r="D13" s="4">
-        <v>0.80333409899571295</v>
+        <v>0.80431183398692296</v>
       </c>
       <c r="E13" s="1">
-        <v>11285.0985107421</v>
+        <v>11276.108886718701</v>
       </c>
       <c r="F13" s="1">
-        <v>5099.1997680663999</v>
+        <v>5102.8226318359302</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="7">
-        <v>15.5</v>
+      <c r="B14" s="5">
+        <v>15.7</v>
       </c>
       <c r="C14" s="3">
-        <v>29.382625020584399</v>
+        <v>29.432165769718299</v>
       </c>
       <c r="D14" s="4">
-        <v>0.81042753953135604</v>
+        <v>0.81183784986311802</v>
       </c>
       <c r="E14" s="1">
-        <v>11113.8918457031</v>
+        <v>11096.3243408203</v>
       </c>
       <c r="F14" s="1">
-        <v>5044.8361816406205</v>
+        <v>5046.9805297851499</v>
       </c>
     </row>
     <row r="19" spans="2:6">

--- a/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004920C-E7FF-4D9F-96AD-EA03A5A80424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A77AAD-B8C6-4D5C-AA4B-369C66E7422D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="TEST19" sheetId="10" r:id="rId10"/>
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
+    <sheet name="Lenna256" sheetId="13" r:id="rId13"/>
+    <sheet name="Lenna512" sheetId="14" r:id="rId14"/>
+    <sheet name="Boat512" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>bpp</t>
   </si>
@@ -1689,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E48040F-FDE7-460F-A599-B78AB720A4D2}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1983,6 +1986,939 @@
       </c>
       <c r="F14" s="1">
         <v>4188.56541442871</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2F42A5-604E-453D-B04C-A0A0FD060ED0}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2.24609375</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22.723362844861601</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.60010070374343205</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15258.408203125</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4036.61474609375</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.41796875</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23.610912230354501</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.65844677648191297</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14960.6298828125</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4148.2326660156205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.19921875</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24.451454883057401</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68756660938502301</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14223.7763671875</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4386.5900878906205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.17578125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25.244063247419501</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.71884695684805799</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13850.2177734375</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4553.2678222656205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6.15234375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.009910629811401</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.74558971288434095</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13693.5751953125</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4461.7785644531205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7.32421875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.685939376970101</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.77125139965683198</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13142.07421875</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4351.5895996093705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8.49609375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27.2320289636925</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.79384564158106596</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13141.942871093701</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4454.779296875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="9">
+        <v>9.66796875</v>
+      </c>
+      <c r="C9" s="3">
+        <v>27.646780791798399</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.807036977366137</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13344.1552734375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4486.8732910156205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10.83984375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>28.0274867034084</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.82142656319817198</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13150.334472656201</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4535.6279296875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="9">
+        <v>12.20703125</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28.460604126996898</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.83227584315912195</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13261.477050781201</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4570.7770996093705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>13.57421875</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28.834751968211499</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.84329609653356696</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12990.876464843701</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4626.6630859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="9">
+        <v>15.13671875</v>
+      </c>
+      <c r="C13" s="3">
+        <v>29.207680275384799</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.85445064995696096</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12695.0478515625</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4615.06103515625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>16.50390625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29.490287110322601</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.86369238901497303</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12736.018066406201</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4705.71923828125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3453CA3B-7004-4C6E-81C0-2B9D26AE7799}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3.04155349731445</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24.9208895937028</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68255574056352197</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7599.6550292968705</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1874.28698730468</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4.5687675476074201</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27.024652253764302</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.74204894268561505</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7025.0428466796802</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2091.5239868163999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6.1709403991699201</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28.545442185612799</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.78112695759417605</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6747.8062744140598</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2189.5470581054601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7.8761100769042898</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29.5915359419261</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.80879927952792796</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6217.0936279296802</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2160.8965454101499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9.6816062927246094</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30.413646854358898</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.82797273899859403</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6035.4227294921802</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2126.9617309570299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <v>11.571979522705</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31.141955587451299</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.844188523058921</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5962.9251708984302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2090.9265747070299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>13.663005828857401</v>
+      </c>
+      <c r="C8" s="3">
+        <v>31.761603539355601</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.85687883207988402</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5680.57763671875</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2038.9816284179601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15.9073829650878</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32.304271843806703</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.86728076199634496</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5562.611328125</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2046.5191040039001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>18.273830413818299</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32.783989110736101</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.87551620599923596</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5505.322265625</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2022.87976074218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20.793819427490199</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.215254939849203</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.88295531435947106</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5369.1553955078098</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1965.86450195312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>23.333644866943299</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.5845123194362</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.88875284422721001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5296.9781494140598</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1964.03283691406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="9">
+        <v>26.276683807373001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33.952670407684103</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.89426500026286704</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5198.9649658203098</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1935.19653320312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>29.140758514404201</v>
+      </c>
+      <c r="C14" s="3">
+        <v>34.2718815762234</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.89883591600540802</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5121.39453125</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1859.8041381835901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F70A9-CF5E-430F-BA01-AC9EE01891F7}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2.5498390197753902</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23.6020400201886</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.65033319342902396</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10150.2431640625</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2922.78100585937</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.8571357727050701</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24.9290257905377</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.69682859660778895</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9962.6439208984302</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3189.5775146484302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5.0490379333495996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>26.130576544112198</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.73673357310126397</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10046.043579101501</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3366.67895507812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6.2798500061035103</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27.103446718926602</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.76933919631704195</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9798.32958984375</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3465.6689453125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7.5882911682128897</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27.8275053383332</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.79102350366284302</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9749.4893798828107</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3600.88623046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8.8942527770996094</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28.463056963694399</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.80879907509139604</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9542.26416015625</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3592.8726806640602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10.314083099365201</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29.021271863014601</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.82477746011987896</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9160.7457275390607</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3472.7902221679601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="9">
+        <v>11.7867469787597</v>
+      </c>
+      <c r="C9" s="3">
+        <v>29.527113346485901</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.83983092319028196</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9020.51416015625</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3452.7423095703102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>13.317775726318301</v>
+      </c>
+      <c r="C10" s="3">
+        <v>29.993391301657098</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85035348385061205</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8960.2200927734302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3437.8223876953102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="9">
+        <v>14.956951141357401</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30.419567559636199</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.86115232480618997</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8947.1486816406195</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3389.91674804687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>16.6035652160644</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30.812203139748298</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.86920673453295805</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8844.1140136718695</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3391.4033203125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="9">
+        <v>18.391513824462798</v>
+      </c>
+      <c r="C13" s="3">
+        <v>31.193332721549002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87766676991460002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8756.2628173828107</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3384.56884765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>20.177364349365199</v>
+      </c>
+      <c r="C14" s="3">
+        <v>31.532182900407701</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.88428879757384504</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8660.3742675781195</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3391.31494140625</v>
       </c>
     </row>
   </sheetData>

--- a/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_8x8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <sheet name="Lenna512" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Boat512" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Trumpet" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Sailboat256" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="6">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -59,12 +60,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -350,7 +352,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,6 +395,10 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -495,14 +501,14 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="B2:B14 D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,13 +816,13 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="B2:B14 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1130,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,13 +1444,13 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="B2:B14 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,17 +1754,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,13 +2072,13 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,13 +2386,13 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="B2:B14 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,17 +2696,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="B2:B14 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,6 +2990,320 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>1873.92179870605</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>9.5367431640625E-005</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>21.7704157488461</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.579047402695811</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>19168.1889648438</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5968.96948242188</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>2.5395393371582</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>22.0612281304755</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.596850789579831</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>19153.61328125</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6022.05712890625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>3.3360481262207</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>23.058682397579</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.657110777542667</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>18439.248046875</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>6110.40966796875</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>4.05855178833008</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>23.888634081817</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.687454707116473</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>18988.615234375</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>6652.77490234375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>4.85467910766602</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>24.7167020068147</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.717341046948483</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>18199.0219726563</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6577.982421875</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>5.61513900756836</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>25.4670465011714</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.75002480783388</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>17940.1904296875</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>6884.27880859375</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>6.51655197143555</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>26.0544039790908</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.773902426024695</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>17059.3349609375</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6773.04931640625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>7.42025375366211</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>26.5992849711274</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.787594817940176</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>17023.6923828125</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6565.0146484375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>8.30965042114258</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>27.069112179306</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.805617131780592</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>16519.3520507813</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>6437.86108398438</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>9.27743911743164</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>27.5529764775892</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.82246933718534</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>16243.337890625</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>6645.05249023437</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>10.0995063781738</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>27.8919620736212</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.830433218522564</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>15928.0395507813</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>6682.14892578125</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>11.1828804016113</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>28.3324071270459</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.841812704904201</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>15608.2592773438</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6533.26489257813</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>12.2076988220215</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>28.7089550273795</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.854664783727281</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>15516.0864257813</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>6614.68359375</v>
       </c>
     </row>
   </sheetData>
@@ -3008,13 +3328,13 @@
       <selection pane="topLeft" activeCell="I21" activeCellId="1" sqref="B2:B14 I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,13 +3642,13 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="B2:B14 C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,13 +3956,13 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B2:B14 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,13 +4270,13 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,13 +4584,13 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="B2:B14 D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,13 +4898,13 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="B2:B14 D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,13 +5212,13 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="B2:B14 C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,13 +5526,13 @@
       <selection pane="topLeft" activeCell="K18" activeCellId="1" sqref="B2:B14 K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
